--- a/data/trans_dic/P22_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22_R2-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03178290708325868</v>
+        <v>0.03279030907645128</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05919153742134065</v>
+        <v>0.05844016817808855</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04016641982833081</v>
+        <v>0.03836684575534914</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07176388724839441</v>
+        <v>0.07168944874351219</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0271981021093201</v>
+        <v>0.02617969052441519</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03819132927753537</v>
+        <v>0.03745921302617278</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03655748996545358</v>
+        <v>0.03467420435858143</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.101022854597165</v>
+        <v>0.1038057988814989</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03653910654228083</v>
+        <v>0.0369005602795788</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0573427611920348</v>
+        <v>0.05662835754818333</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04431794348729015</v>
+        <v>0.04447510516732631</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09500670658003743</v>
+        <v>0.09531895669717078</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08666165060119328</v>
+        <v>0.09250170764665942</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1285060570847049</v>
+        <v>0.1266092311622095</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09916945906321122</v>
+        <v>0.09523840308234363</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1442435357600876</v>
+        <v>0.1432145056666979</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08609713001026735</v>
+        <v>0.0862564600010039</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09855957061743416</v>
+        <v>0.1003969896661218</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09782603768885559</v>
+        <v>0.0991024785847856</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.162549215881656</v>
+        <v>0.1628858869458892</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07720875754756293</v>
+        <v>0.07697440606329055</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1041464956524706</v>
+        <v>0.1043327249074404</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08840405361687467</v>
+        <v>0.08624590303700048</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1414767183712948</v>
+        <v>0.1420689616824422</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.01671537598806183</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.06010873697192302</v>
+        <v>0.060108736971923</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.04097289947781811</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03769708833127134</v>
+        <v>0.03696418268064469</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0281671027542369</v>
+        <v>0.03092964656458693</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002020518786450166</v>
+        <v>0.002028686686279316</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04884085268940729</v>
+        <v>0.04548059526226923</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01258976947956016</v>
+        <v>0.01344181604864724</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02782747575901053</v>
+        <v>0.027476943511533</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.008005129639247663</v>
+        <v>0.008005644025874279</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04348573995671121</v>
+        <v>0.04431786895565486</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02741970902961323</v>
+        <v>0.0290452118226085</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03341899569311912</v>
+        <v>0.03464466276503199</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.006274349121631649</v>
+        <v>0.006702161955501912</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05147665185321722</v>
+        <v>0.04994469352346739</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08601312694182085</v>
+        <v>0.08500957155108047</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07308722648330146</v>
+        <v>0.07523590186133708</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02393979142912868</v>
+        <v>0.0220076178829083</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09992056873533946</v>
+        <v>0.09964619429694553</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04117488018974828</v>
+        <v>0.04228227481175625</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06787948574566068</v>
+        <v>0.0648606924430097</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03000137736938156</v>
+        <v>0.03150699745842512</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07856004422456986</v>
+        <v>0.07983128004214343</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05513765697109326</v>
+        <v>0.05674096332651019</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06254951421993012</v>
+        <v>0.06491425249747153</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02136148103352604</v>
+        <v>0.02146511848761222</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08104559365417732</v>
+        <v>0.08140460334284831</v>
       </c>
     </row>
     <row r="10">
@@ -939,13 +939,13 @@
         <v>0.0317869595610743</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02454275570050993</v>
+        <v>0.02454275570050992</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.007686097477800764</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06642414338557391</v>
+        <v>0.0664241433855739</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01444375705375177</v>
@@ -957,7 +957,7 @@
         <v>0.005930508893429076</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.07954215229404805</v>
+        <v>0.07954215229404807</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02289578965201785</v>
@@ -969,7 +969,7 @@
         <v>0.00678189840388706</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07337713123497351</v>
+        <v>0.0733771312349735</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01586797029261752</v>
+        <v>0.01689711796234402</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009515194552086862</v>
+        <v>0.009323999869814269</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04322963306363595</v>
+        <v>0.04413932332801659</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0056601530798128</v>
+        <v>0.005505852444125264</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01524213429669855</v>
+        <v>0.01486945243276465</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05931164047893896</v>
+        <v>0.05911636319178273</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01301974342348723</v>
+        <v>0.0137844186481107</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01643431086596793</v>
+        <v>0.01662902022899191</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001535984495337763</v>
+        <v>0.002415783747248836</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05726792040484852</v>
+        <v>0.05808032893903758</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05798362502991852</v>
+        <v>0.05601847081901744</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05131287718135071</v>
+        <v>0.0458642020761197</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02861089288137927</v>
+        <v>0.02924808204146414</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0947552318332564</v>
+        <v>0.09438623461768936</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03218979955219713</v>
+        <v>0.03228108842229683</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05851371223475138</v>
+        <v>0.05647660285295399</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02085002318786493</v>
+        <v>0.02222077886421684</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1084696152146853</v>
+        <v>0.1065762986143369</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03682782388210448</v>
+        <v>0.03726121923745346</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04520994514737411</v>
+        <v>0.04626360305428423</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01690681717049302</v>
+        <v>0.01683795982162848</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09270577088483019</v>
+        <v>0.09101199082993044</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.07024041278445792</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08983506178389271</v>
+        <v>0.08983506178389272</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03188440374890095</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008387990452000718</v>
+        <v>0.008490034233073417</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01403969394600692</v>
+        <v>0.01369599019130011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05268435812993907</v>
+        <v>0.05382030331015131</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09240208493494742</v>
+        <v>0.08798159468334907</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02501813733398809</v>
+        <v>0.02339838396069929</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02474809877510627</v>
+        <v>0.02192047630268483</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04697078381414928</v>
+        <v>0.04538988218301972</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06613630466642022</v>
+        <v>0.06800184338387573</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02124910816755438</v>
+        <v>0.02111334482949349</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02210467950501241</v>
+        <v>0.02248043508019152</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05756643322082677</v>
+        <v>0.05615165065354726</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08752552691360987</v>
+        <v>0.08626527456812359</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04340395291082551</v>
+        <v>0.04187629130608583</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05039042989596499</v>
+        <v>0.0494166830883612</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1123979272824662</v>
+        <v>0.1144256313717643</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1852430341739384</v>
+        <v>0.1805515948379761</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0665852925796251</v>
+        <v>0.06735543975504218</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0631062517410465</v>
+        <v>0.06254796324634336</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1050064554962535</v>
+        <v>0.1004699207898065</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1171539919929839</v>
+        <v>0.116868328520577</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04601801811458207</v>
+        <v>0.0472183355449767</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04887365833073366</v>
+        <v>0.04996633074261345</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09823925985053046</v>
+        <v>0.0970640817558885</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1351058018764871</v>
+        <v>0.1366339219688691</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1155054965048684</v>
+        <v>0.1150257320770886</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04973895178229967</v>
+        <v>0.05062196589996476</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04255398709066333</v>
+        <v>0.04070909550079471</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09954340840038411</v>
+        <v>0.09534010844196013</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04345716032084782</v>
+        <v>0.04693160071245338</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05211288833660388</v>
+        <v>0.05163157135326354</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1173246339039817</v>
+        <v>0.1186859650793314</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0542972508832552</v>
+        <v>0.05340500393161487</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.002064474759051356</v>
+        <v>0.002058313899620804</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05357697897496574</v>
+        <v>0.05492396910003997</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2197696873571337</v>
+        <v>0.2212073042813216</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1269059664723279</v>
+        <v>0.1305393156000397</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02994849840911107</v>
+        <v>0.02974995868267699</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09906064933176291</v>
+        <v>0.1018332345988478</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1932156374293109</v>
+        <v>0.1894528872029283</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1160550366165634</v>
+        <v>0.1163233354231547</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0224392583119336</v>
+        <v>0.02265864178816964</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1030333306755376</v>
+        <v>0.0957242387302866</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1889395379428453</v>
+        <v>0.1898105661543527</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1067258721532858</v>
+        <v>0.1061773513963237</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02028363064940996</v>
+        <v>0.01754815793065303</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.088536836995498</v>
+        <v>0.09168113097126872</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.0196476055717422</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.08041491004195532</v>
+        <v>0.08041491004195528</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.01053573748188853</v>
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01740204693499837</v>
+        <v>0.01793680936773463</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00746248536307611</v>
+        <v>0.007840743347815361</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04778310715952433</v>
+        <v>0.04774438396418475</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.003422381288008338</v>
+        <v>0.00343401099177166</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003522187878190585</v>
+        <v>0.003871578621918012</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.007415031252126211</v>
+        <v>0.007432411226803434</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05611542813899151</v>
+        <v>0.05446106661795798</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.003725651345589628</v>
+        <v>0.003642437397694021</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01503159172525752</v>
+        <v>0.01376528316413884</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01120283216740312</v>
+        <v>0.0106939833470732</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.05723626103592346</v>
+        <v>0.05994048131140269</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03648137275037021</v>
+        <v>0.03576184621146841</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06788029665814549</v>
+        <v>0.06509424371847286</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04586146370891724</v>
+        <v>0.04521910668596322</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1054090989716524</v>
+        <v>0.1070114768498079</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02877812068263041</v>
+        <v>0.02915273428772895</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03987553342006184</v>
+        <v>0.04487864731192327</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04663640733715124</v>
+        <v>0.04501087409275391</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1103705147410403</v>
+        <v>0.1101516415665963</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02346747052536612</v>
+        <v>0.02236791011148243</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04479159130021611</v>
+        <v>0.04372066136162692</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03562812711529506</v>
+        <v>0.03497665017308503</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.09759147779956941</v>
+        <v>0.1006109684299542</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02800551804063446</v>
+        <v>0.02683872863762404</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02181131743783377</v>
+        <v>0.02271785636695318</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02615570999362332</v>
+        <v>0.02739810573089016</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.160725970539791</v>
+        <v>0.1621825094717391</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03182840408920564</v>
+        <v>0.03188767883037753</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02270079178572807</v>
+        <v>0.02230924423248993</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03562051286794393</v>
+        <v>0.03451171897194701</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1824599404608</v>
+        <v>0.1814255705417742</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03342988340472286</v>
+        <v>0.03345226816945771</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02577967229416214</v>
+        <v>0.02572150651524308</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03555161099920404</v>
+        <v>0.03516628526455641</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1823572648171518</v>
+        <v>0.1818578269677032</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06456561755205943</v>
+        <v>0.06196070316011019</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05232356417223658</v>
+        <v>0.05274260123130246</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05844576121456196</v>
+        <v>0.06062986955780661</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2270652406882609</v>
+        <v>0.2275895766184065</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06701425079695213</v>
+        <v>0.06762162329503663</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05187469018897514</v>
+        <v>0.05262316648346646</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06906706067301198</v>
+        <v>0.07038408034296724</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2381198873626243</v>
+        <v>0.2379462075082657</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05797125907079313</v>
+        <v>0.05776569402692466</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04713909314271311</v>
+        <v>0.04712586453883895</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05882223467899427</v>
+        <v>0.05824792530469901</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2263228793319255</v>
+        <v>0.2226209239834473</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.05624692668424992</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.05289590279253352</v>
+        <v>0.05289590279253351</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1027644114821723</v>
+        <v>0.1047077311056687</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03359033448366632</v>
+        <v>0.03345950614775865</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0315756327998576</v>
+        <v>0.02969117197481765</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03151357519221716</v>
+        <v>0.03087689442027988</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.06795234058673957</v>
+        <v>0.07002242712666985</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03203183385904037</v>
+        <v>0.03300080589761425</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05212053516352128</v>
+        <v>0.0519327100875388</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04648634255397466</v>
+        <v>0.04591107021629694</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.09092279059551263</v>
+        <v>0.09031791581212779</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03657397951632219</v>
+        <v>0.03684311871934175</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04587791282848196</v>
+        <v>0.04654337529756802</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.04324576823280896</v>
+        <v>0.04166111781709081</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.151075495911927</v>
+        <v>0.1555460928576</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.06820532197058407</v>
+        <v>0.06634789766672156</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.06132164321956023</v>
+        <v>0.05982127654168482</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06182398265367874</v>
+        <v>0.0628871538911647</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1087356675924286</v>
+        <v>0.1096177491794405</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.06178948410401618</v>
+        <v>0.06213106100211808</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.08811207290033543</v>
+        <v>0.08996173453888436</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.07589190636599667</v>
+        <v>0.07679364546600635</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1221272047950907</v>
+        <v>0.1215934244511168</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.05825620414816808</v>
+        <v>0.0588714267796499</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.06850641437954884</v>
+        <v>0.07061115455102659</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.06413629059479864</v>
+        <v>0.0646028918076041</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0572652960795984</v>
+        <v>0.05792459388754227</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03887494816695725</v>
+        <v>0.03867836304736937</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02989264323815752</v>
+        <v>0.02984100335406962</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.08764159241437497</v>
+        <v>0.08687208256015291</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.0445786863457087</v>
+        <v>0.0447481572945548</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.03563517804551721</v>
+        <v>0.03558986943387049</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.03601069197257735</v>
+        <v>0.03656328593503212</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.09613915781541785</v>
+        <v>0.09678792426880536</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.05313381621879094</v>
+        <v>0.05351136389692574</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.03919390540770182</v>
+        <v>0.03922843863669839</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.03445598614229694</v>
+        <v>0.03501396697984251</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.09442724609569607</v>
+        <v>0.09457583715678379</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.07456558338251881</v>
+        <v>0.07476471847284798</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05336189745868819</v>
+        <v>0.05378243047157579</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04308100038530849</v>
+        <v>0.04293953625114672</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1095797820433328</v>
+        <v>0.1104252881558809</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.06109015424158237</v>
+        <v>0.06093849432239743</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.04958403618474268</v>
+        <v>0.04962583180756835</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.05050615515471463</v>
+        <v>0.05075870088730332</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1136152795117236</v>
+        <v>0.1145618996630344</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.06497812125735823</v>
+        <v>0.06526888824248757</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.04966805321172874</v>
+        <v>0.04949602102983668</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.0443372628375519</v>
+        <v>0.04465625449228621</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.108635376093873</v>
+        <v>0.1092147537039077</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8648</v>
+        <v>8922</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17446</v>
+        <v>17225</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11799</v>
+        <v>11271</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22882</v>
+        <v>22858</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7094</v>
+        <v>6829</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10970</v>
+        <v>10760</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>10518</v>
+        <v>9977</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>31929</v>
+        <v>32809</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19472</v>
+        <v>19665</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>33373</v>
+        <v>32957</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>25770</v>
+        <v>25862</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>60320</v>
+        <v>60519</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23579</v>
+        <v>25168</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37876</v>
+        <v>37317</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29132</v>
+        <v>27977</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>45991</v>
+        <v>45663</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22457</v>
+        <v>22499</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28311</v>
+        <v>28839</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>28147</v>
+        <v>28514</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>51375</v>
+        <v>51482</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>41146</v>
+        <v>41021</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>60611</v>
+        <v>60720</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>51406</v>
+        <v>50151</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>89824</v>
+        <v>90200</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18587</v>
+        <v>18226</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14212</v>
+        <v>15605</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>25917</v>
+        <v>24134</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6345</v>
+        <v>6774</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14575</v>
+        <v>14391</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23765</v>
+        <v>24219</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>27338</v>
+        <v>28959</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>34365</v>
+        <v>35625</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6435</v>
+        <v>6874</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>55448</v>
+        <v>53797</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>42411</v>
+        <v>41916</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36876</v>
+        <v>37960</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12032</v>
+        <v>11060</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>53023</v>
+        <v>52877</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>20750</v>
+        <v>21308</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>35553</v>
+        <v>33972</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15693</v>
+        <v>16481</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>42933</v>
+        <v>43627</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>54974</v>
+        <v>56572</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>64320</v>
+        <v>66752</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>21910</v>
+        <v>22016</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>87298</v>
+        <v>87684</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5059</v>
+        <v>5388</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3083</v>
+        <v>3021</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13660</v>
+        <v>13948</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1898</v>
+        <v>1847</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5198</v>
+        <v>5071</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>21138</v>
+        <v>21068</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8518</v>
+        <v>9019</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>10930</v>
+        <v>11059</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1003</v>
+        <v>1577</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>38506</v>
+        <v>39052</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18488</v>
+        <v>17861</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16628</v>
+        <v>14862</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9060</v>
+        <v>9262</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>29942</v>
+        <v>29825</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10797</v>
+        <v>10827</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19954</v>
+        <v>19260</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7012</v>
+        <v>7473</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>38657</v>
+        <v>37982</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>24095</v>
+        <v>24378</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>30068</v>
+        <v>30768</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11040</v>
+        <v>10995</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>62333</v>
+        <v>61194</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2990</v>
+        <v>3027</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5251</v>
+        <v>5122</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19491</v>
+        <v>19912</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>34479</v>
+        <v>32830</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9272</v>
+        <v>8672</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9626</v>
+        <v>8526</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18191</v>
+        <v>17579</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>27907</v>
+        <v>28694</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15451</v>
+        <v>15352</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>16864</v>
+        <v>17151</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>43592</v>
+        <v>42521</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>69592</v>
+        <v>68590</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15474</v>
+        <v>14930</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18845</v>
+        <v>18481</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>41583</v>
+        <v>42333</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>69123</v>
+        <v>67372</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>24677</v>
+        <v>24963</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>24545</v>
+        <v>24328</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>40667</v>
+        <v>38910</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>49434</v>
+        <v>49314</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>33461</v>
+        <v>34334</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>37287</v>
+        <v>38121</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>74391</v>
+        <v>73501</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>107424</v>
+        <v>108639</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23483</v>
+        <v>23386</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10575</v>
+        <v>10763</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8752</v>
+        <v>8372</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>20672</v>
+        <v>19799</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>9543</v>
+        <v>10306</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>11930</v>
+        <v>11819</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>48218</v>
+        <v>48777</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>23468</v>
+        <v>23082</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>23284</v>
+        <v>23869</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>44681</v>
+        <v>44973</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26982</v>
+        <v>27755</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6326</v>
+        <v>6284</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>20373</v>
+        <v>20944</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>40125</v>
+        <v>39343</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>25485</v>
+        <v>25544</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>4905</v>
+        <v>4953</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>23586</v>
+        <v>21913</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>77650</v>
+        <v>78008</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>46128</v>
+        <v>45891</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>8718</v>
+        <v>7542</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>38477</v>
+        <v>39843</v>
       </c>
     </row>
     <row r="24">
@@ -3051,37 +3051,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4768</v>
+        <v>4914</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1964</v>
+        <v>2063</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>12935</v>
+        <v>12925</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>986</v>
+        <v>1084</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>14800</v>
+        <v>14364</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2045</v>
+        <v>2000</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>8328</v>
+        <v>7626</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>6007</v>
+        <v>5735</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>30590</v>
+        <v>32036</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9880</v>
+        <v>9685</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18598</v>
+        <v>17835</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12067</v>
+        <v>11898</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>28535</v>
+        <v>28969</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8004</v>
+        <v>8109</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>11166</v>
+        <v>12567</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>12737</v>
+        <v>12293</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>29110</v>
+        <v>29052</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>12883</v>
+        <v>12279</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>24815</v>
+        <v>24222</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>19105</v>
+        <v>18756</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>52158</v>
+        <v>53772</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>17196</v>
+        <v>16480</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>14456</v>
+        <v>15057</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>17094</v>
+        <v>17906</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>115672</v>
+        <v>116721</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>20276</v>
+        <v>20314</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>15751</v>
+        <v>15479</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>24452</v>
+        <v>23691</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>140675</v>
+        <v>139877</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>41823</v>
+        <v>41851</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>34974</v>
+        <v>34895</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>47640</v>
+        <v>47123</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>271836</v>
+        <v>271091</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>39645</v>
+        <v>38045</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>34679</v>
+        <v>34957</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>38197</v>
+        <v>39624</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>163416</v>
+        <v>163793</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>42691</v>
+        <v>43078</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>35993</v>
+        <v>36513</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>47412</v>
+        <v>48316</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>183588</v>
+        <v>183454</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>72526</v>
+        <v>72269</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>63951</v>
+        <v>63933</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>78822</v>
+        <v>78053</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>337375</v>
+        <v>331856</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>76197</v>
+        <v>77638</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>26170</v>
+        <v>26068</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>24584</v>
+        <v>23117</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>25150</v>
+        <v>24642</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>53241</v>
+        <v>54863</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>26390</v>
+        <v>27188</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>43060</v>
+        <v>42905</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>38612</v>
+        <v>38134</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>138656</v>
+        <v>137733</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>58626</v>
+        <v>59058</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>73623</v>
+        <v>74690</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>70434</v>
+        <v>67853</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>112018</v>
+        <v>115333</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>53139</v>
+        <v>51692</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>47744</v>
+        <v>46576</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>49340</v>
+        <v>50188</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>85196</v>
+        <v>85887</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>50905</v>
+        <v>51187</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>72795</v>
+        <v>74323</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>63037</v>
+        <v>63785</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>186242</v>
+        <v>185428</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>93382</v>
+        <v>94368</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>109936</v>
+        <v>113313</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>104458</v>
+        <v>105218</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>187265</v>
+        <v>189421</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>133178</v>
+        <v>132504</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>101319</v>
+        <v>101144</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>309617</v>
+        <v>306898</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>150550</v>
+        <v>151122</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>126801</v>
+        <v>126640</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>127432</v>
+        <v>129388</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>359096</v>
+        <v>361519</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>353197</v>
+        <v>355706</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>273734</v>
+        <v>273976</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>238717</v>
+        <v>242583</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>686290</v>
+        <v>687370</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>243840</v>
+        <v>244491</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>182807</v>
+        <v>184248</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>146020</v>
+        <v>145541</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>387119</v>
+        <v>390106</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>206312</v>
+        <v>205800</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>176435</v>
+        <v>176584</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>178728</v>
+        <v>179622</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>424372</v>
+        <v>427908</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>431929</v>
+        <v>433862</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>346887</v>
+        <v>345686</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>307176</v>
+        <v>309386</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>789554</v>
+        <v>793765</v>
       </c>
     </row>
     <row r="40">
